--- a/test_csv.xlsx
+++ b/test_csv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="438">
   <si>
     <t>SKU</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Best Selling Rank</t>
   </si>
   <si>
+    <t>Review</t>
+  </si>
+  <si>
     <t>Screen Size Class</t>
   </si>
   <si>
@@ -413,6 +416,39 @@
   </si>
   <si>
     <t>Metallic Gray</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
   </si>
   <si>
     <t>39 inches</t>
@@ -1649,13 +1685,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U101"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1716,8 +1752,11 @@
       <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1725,10 +1764,10 @@
         <v>1213167</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>199.99</v>
@@ -1737,7 +1776,7 @@
         <v>381</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -1746,43 +1785,46 @@
         <v>172</v>
       </c>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="L2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M2" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="N2" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="O2" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="P2" t="s">
-        <v>316</v>
+        <v>265</v>
       </c>
       <c r="Q2" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="R2" t="s">
-        <v>249</v>
+        <v>374</v>
       </c>
       <c r="S2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T2" t="s">
-        <v>419</v>
+        <v>269</v>
       </c>
       <c r="U2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>431</v>
+      </c>
+      <c r="V2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1790,10 +1832,10 @@
         <v>6080010</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>149.99</v>
@@ -1802,7 +1844,7 @@
         <v>2633</v>
       </c>
       <c r="G3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -1811,40 +1853,43 @@
         <v>241</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M3" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="N3" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
       <c r="O3" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="P3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q3" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="R3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S3" t="s">
-        <v>398</v>
+        <v>269</v>
       </c>
       <c r="T3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>410</v>
+      </c>
+      <c r="U3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1852,10 +1897,10 @@
         <v>8274303</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>599.99</v>
@@ -1864,7 +1909,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1873,37 +1918,40 @@
         <v>279</v>
       </c>
       <c r="J4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="L4" t="s">
         <v>168</v>
       </c>
       <c r="M4" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="N4" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="O4" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="P4" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="Q4" t="s">
-        <v>249</v>
+        <v>322</v>
       </c>
       <c r="R4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S4" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="T4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1911,10 +1959,10 @@
         <v>1729549</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>269.99</v>
@@ -1923,7 +1971,7 @@
         <v>660</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -1932,43 +1980,46 @@
         <v>471</v>
       </c>
       <c r="J5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K5" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M5" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="N5" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="O5" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="P5" t="s">
-        <v>317</v>
+        <v>265</v>
       </c>
       <c r="Q5" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="R5" t="s">
-        <v>249</v>
+        <v>375</v>
       </c>
       <c r="S5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T5" t="s">
-        <v>136</v>
+        <v>269</v>
       </c>
       <c r="U5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>148</v>
+      </c>
+      <c r="V5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1976,10 +2027,10 @@
         <v>4380083</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>329.99</v>
@@ -1988,7 +2039,7 @@
         <v>439</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H6">
         <v>50</v>
@@ -1997,37 +2048,40 @@
         <v>540</v>
       </c>
       <c r="J6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K6" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M6" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="N6" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="O6" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="P6" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="Q6" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="R6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="T6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2035,10 +2089,10 @@
         <v>2799043</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>99.99</v>
@@ -2047,7 +2101,7 @@
         <v>1760</v>
       </c>
       <c r="G7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2056,40 +2110,43 @@
         <v>563</v>
       </c>
       <c r="J7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="L7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M7" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="N7" t="s">
-        <v>254</v>
+        <v>172</v>
       </c>
       <c r="O7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="P7" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="Q7" t="s">
-        <v>249</v>
+        <v>330</v>
       </c>
       <c r="R7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S7" t="s">
-        <v>411</v>
+        <v>269</v>
       </c>
       <c r="T7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>423</v>
+      </c>
+      <c r="U7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2097,10 +2154,10 @@
         <v>1242815</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>219.99</v>
@@ -2109,7 +2166,7 @@
         <v>462</v>
       </c>
       <c r="G8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H8">
         <v>20</v>
@@ -2118,43 +2175,46 @@
         <v>584</v>
       </c>
       <c r="J8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L8" t="s">
+        <v>167</v>
+      </c>
+      <c r="M8" t="s">
+        <v>184</v>
+      </c>
+      <c r="N8" t="s">
         <v>172</v>
       </c>
-      <c r="M8" t="s">
-        <v>160</v>
-      </c>
-      <c r="N8" t="s">
-        <v>218</v>
-      </c>
       <c r="O8" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="P8" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="Q8" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="R8" t="s">
-        <v>249</v>
+        <v>374</v>
       </c>
       <c r="S8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T8" t="s">
-        <v>398</v>
+        <v>269</v>
       </c>
       <c r="U8" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>410</v>
+      </c>
+      <c r="V8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2162,10 +2222,10 @@
         <v>1201012</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>129.99</v>
@@ -2174,7 +2234,7 @@
         <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -2183,43 +2243,46 @@
         <v>601</v>
       </c>
       <c r="J9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M9" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="N9" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="O9" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="P9" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="Q9" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="R9" t="s">
-        <v>249</v>
+        <v>376</v>
       </c>
       <c r="S9" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T9" t="s">
-        <v>415</v>
+        <v>269</v>
       </c>
       <c r="U9" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>427</v>
+      </c>
+      <c r="V9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2227,10 +2290,10 @@
         <v>3953148</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <v>999.99</v>
@@ -2239,7 +2302,7 @@
         <v>586</v>
       </c>
       <c r="G10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -2248,40 +2311,43 @@
         <v>629</v>
       </c>
       <c r="J10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L10" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M10" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="N10" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="O10" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="P10" t="s">
-        <v>321</v>
+        <v>262</v>
       </c>
       <c r="Q10" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="R10" t="s">
-        <v>249</v>
+        <v>377</v>
       </c>
       <c r="S10" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="U10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2289,10 +2355,10 @@
         <v>1294029</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>189.99</v>
@@ -2301,7 +2367,7 @@
         <v>142</v>
       </c>
       <c r="G11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -2310,40 +2376,43 @@
         <v>637</v>
       </c>
       <c r="J11" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K11" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="M11" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="N11" t="s">
-        <v>254</v>
+        <v>172</v>
       </c>
       <c r="O11" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="P11" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="Q11" t="s">
-        <v>249</v>
+        <v>334</v>
       </c>
       <c r="R11" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S11" t="s">
-        <v>398</v>
+        <v>269</v>
       </c>
       <c r="T11" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>410</v>
+      </c>
+      <c r="U11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2351,10 +2420,10 @@
         <v>2834644</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12">
         <v>249.99</v>
@@ -2363,7 +2432,7 @@
         <v>305</v>
       </c>
       <c r="G12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -2372,43 +2441,46 @@
         <v>654</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="M12" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="N12" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="O12" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="P12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q12" t="s">
-        <v>366</v>
+        <v>276</v>
       </c>
       <c r="R12" t="s">
-        <v>249</v>
+        <v>378</v>
       </c>
       <c r="S12" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T12" t="s">
-        <v>398</v>
+        <v>269</v>
       </c>
       <c r="U12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>410</v>
+      </c>
+      <c r="V12" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2416,10 +2488,10 @@
         <v>2833053</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13">
         <v>849.99</v>
@@ -2428,7 +2500,7 @@
         <v>216</v>
       </c>
       <c r="G13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H13">
         <v>100</v>
@@ -2437,40 +2509,43 @@
         <v>669</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="M13" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="N13" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="O13" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="P13" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="Q13" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="R13" t="s">
-        <v>249</v>
+        <v>379</v>
       </c>
       <c r="S13" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="U13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2478,10 +2553,10 @@
         <v>3417039</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14">
         <v>599.99</v>
@@ -2490,7 +2565,7 @@
         <v>278</v>
       </c>
       <c r="G14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H14">
         <v>30</v>
@@ -2499,40 +2574,43 @@
         <v>670</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="N14" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="O14" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="P14" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="Q14" t="s">
-        <v>249</v>
+        <v>336</v>
       </c>
       <c r="R14" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S14" t="s">
-        <v>161</v>
+        <v>269</v>
       </c>
       <c r="T14" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>173</v>
+      </c>
+      <c r="U14" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2540,10 +2618,10 @@
         <v>3716037</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15">
         <v>399.99</v>
@@ -2552,7 +2630,7 @@
         <v>274</v>
       </c>
       <c r="G15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2561,43 +2639,46 @@
         <v>681</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="N15" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="O15" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="P15" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="Q15" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="R15" t="s">
-        <v>249</v>
+        <v>380</v>
       </c>
       <c r="S15" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T15" t="s">
-        <v>420</v>
+        <v>269</v>
       </c>
       <c r="U15" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>432</v>
+      </c>
+      <c r="V15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2605,10 +2686,10 @@
         <v>1854147</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>149.99</v>
@@ -2617,7 +2698,7 @@
         <v>297</v>
       </c>
       <c r="G16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H16">
         <v>30</v>
@@ -2629,37 +2710,40 @@
         <v>134</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="M16" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="N16" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="P16" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="Q16" t="s">
-        <v>249</v>
+        <v>334</v>
       </c>
       <c r="R16" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S16" t="s">
-        <v>398</v>
+        <v>269</v>
       </c>
       <c r="T16" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>410</v>
+      </c>
+      <c r="U16" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2667,10 +2751,10 @@
         <v>5149031</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17">
         <v>1399.99</v>
@@ -2679,7 +2763,7 @@
         <v>246</v>
       </c>
       <c r="G17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H17">
         <v>400</v>
@@ -2688,40 +2772,43 @@
         <v>762</v>
       </c>
       <c r="J17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="M17" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="N17" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="P17" t="s">
-        <v>326</v>
+        <v>262</v>
       </c>
       <c r="Q17" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="R17" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="S17" t="s">
-        <v>257</v>
+        <v>352</v>
       </c>
       <c r="T17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="U17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2729,10 +2816,10 @@
         <v>9660175</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18">
         <v>399.99</v>
@@ -2741,7 +2828,7 @@
         <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H18">
         <v>80</v>
@@ -2753,31 +2840,34 @@
         <v>139</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="M18" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="N18" t="s">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="O18" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="P18" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="Q18" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="R18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="S18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2785,10 +2875,10 @@
         <v>4052057</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <v>299.99</v>
@@ -2797,7 +2887,7 @@
         <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H19">
         <v>30</v>
@@ -2806,43 +2896,46 @@
         <v>800</v>
       </c>
       <c r="J19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K19" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="M19" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="N19" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="O19" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="P19" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="Q19" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="R19" t="s">
-        <v>249</v>
+        <v>382</v>
       </c>
       <c r="S19" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T19" t="s">
-        <v>159</v>
+        <v>269</v>
       </c>
       <c r="U19" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+        <v>171</v>
+      </c>
+      <c r="V19" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2850,10 +2943,10 @@
         <v>5555039</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20">
         <v>319.99</v>
@@ -2862,7 +2955,7 @@
         <v>216</v>
       </c>
       <c r="G20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2874,31 +2967,34 @@
         <v>134</v>
       </c>
       <c r="K20" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L20" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="M20" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="N20" t="s">
-        <v>256</v>
+        <v>168</v>
       </c>
       <c r="O20" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="P20" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="Q20" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="R20" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="S20" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2906,10 +3002,10 @@
         <v>8552023</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>379.99</v>
@@ -2918,7 +3014,7 @@
         <v>1364</v>
       </c>
       <c r="G21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2927,40 +3023,43 @@
         <v>835</v>
       </c>
       <c r="J21" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K21" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L21" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="M21" t="s">
-        <v>249</v>
+        <v>148</v>
       </c>
       <c r="N21" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O21" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="P21" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="Q21" t="s">
-        <v>292</v>
+        <v>172</v>
       </c>
       <c r="R21" t="s">
-        <v>399</v>
+        <v>304</v>
       </c>
       <c r="S21" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="T21" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+        <v>418</v>
+      </c>
+      <c r="U21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2968,10 +3067,10 @@
         <v>3418083</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E22">
         <v>599.99</v>
@@ -2980,7 +3079,7 @@
         <v>1542</v>
       </c>
       <c r="G22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2989,37 +3088,40 @@
         <v>851</v>
       </c>
       <c r="J22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K22" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="L22" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="M22" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="N22" t="s">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="O22" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="P22" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="Q22" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="R22" t="s">
-        <v>400</v>
+        <v>269</v>
       </c>
       <c r="S22" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+        <v>412</v>
+      </c>
+      <c r="T22" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3027,10 +3129,10 @@
         <v>2783406</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E23">
         <v>359.99</v>
@@ -3039,7 +3141,7 @@
         <v>241</v>
       </c>
       <c r="G23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -3048,43 +3150,46 @@
         <v>876</v>
       </c>
       <c r="J23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K23" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L23" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="M23" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="N23" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="O23" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="P23" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="Q23" t="s">
-        <v>371</v>
+        <v>297</v>
       </c>
       <c r="R23" t="s">
-        <v>249</v>
+        <v>383</v>
       </c>
       <c r="S23" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T23" t="s">
-        <v>136</v>
+        <v>269</v>
       </c>
       <c r="U23" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+        <v>148</v>
+      </c>
+      <c r="V23" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3092,10 +3197,10 @@
         <v>3733004</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E24">
         <v>549.99</v>
@@ -3104,7 +3209,7 @@
         <v>112</v>
       </c>
       <c r="G24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H24">
         <v>50</v>
@@ -3113,40 +3218,43 @@
         <v>901</v>
       </c>
       <c r="J24" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L24" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="M24" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="N24" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="O24" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="P24" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="Q24" t="s">
-        <v>249</v>
+        <v>340</v>
       </c>
       <c r="R24" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S24" t="s">
-        <v>407</v>
+        <v>269</v>
       </c>
       <c r="T24" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+        <v>419</v>
+      </c>
+      <c r="U24" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3154,10 +3262,10 @@
         <v>2048535</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E25">
         <v>379.99</v>
@@ -3166,7 +3274,7 @@
         <v>206</v>
       </c>
       <c r="G25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -3175,43 +3283,46 @@
         <v>943</v>
       </c>
       <c r="J25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K25" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="L25" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="M25" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N25" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="O25" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="P25" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="Q25" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="R25" t="s">
-        <v>249</v>
+        <v>384</v>
       </c>
       <c r="S25" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T25" t="s">
-        <v>408</v>
+        <v>269</v>
       </c>
       <c r="U25" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+        <v>420</v>
+      </c>
+      <c r="V25" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3219,10 +3330,10 @@
         <v>3729067</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E26">
         <v>169.99</v>
@@ -3231,7 +3342,7 @@
         <v>914</v>
       </c>
       <c r="G26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H26">
         <v>10</v>
@@ -3243,34 +3354,37 @@
         <v>138</v>
       </c>
       <c r="K26" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="L26" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="M26" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="N26" t="s">
-        <v>259</v>
+        <v>172</v>
       </c>
       <c r="O26" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="P26" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="Q26" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="R26" t="s">
-        <v>401</v>
+        <v>269</v>
       </c>
       <c r="S26" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+        <v>413</v>
+      </c>
+      <c r="T26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3278,10 +3392,10 @@
         <v>2003054</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27">
         <v>1099.99</v>
@@ -3290,7 +3404,7 @@
         <v>586</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H27">
         <v>200</v>
@@ -3299,40 +3413,43 @@
         <v>995</v>
       </c>
       <c r="J27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K27" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L27" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="M27" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="N27" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="O27" t="s">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="P27" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="Q27" t="s">
-        <v>249</v>
+        <v>342</v>
       </c>
       <c r="R27" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S27" t="s">
-        <v>161</v>
+        <v>269</v>
       </c>
       <c r="T27" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+        <v>173</v>
+      </c>
+      <c r="U27" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3340,10 +3457,10 @@
         <v>3813048</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E28">
         <v>269.99</v>
@@ -3352,7 +3469,7 @@
         <v>194</v>
       </c>
       <c r="G28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3361,34 +3478,37 @@
         <v>1020</v>
       </c>
       <c r="J28" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K28" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L28" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="M28" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="N28" t="s">
-        <v>256</v>
+        <v>172</v>
       </c>
       <c r="O28" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="P28" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="Q28" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="R28" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="S28" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3396,10 +3516,10 @@
         <v>3417048</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E29">
         <v>389.99</v>
@@ -3408,7 +3528,7 @@
         <v>257</v>
       </c>
       <c r="G29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3417,40 +3537,43 @@
         <v>1051</v>
       </c>
       <c r="J29" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K29" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L29" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="M29" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="N29" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="O29" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="P29" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="Q29" t="s">
-        <v>249</v>
+        <v>343</v>
       </c>
       <c r="R29" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S29" t="s">
-        <v>143</v>
+        <v>269</v>
       </c>
       <c r="T29" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+        <v>155</v>
+      </c>
+      <c r="U29" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3458,10 +3581,10 @@
         <v>7210005</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E30">
         <v>219.99</v>
@@ -3470,7 +3593,7 @@
         <v>773</v>
       </c>
       <c r="G30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3479,37 +3602,40 @@
         <v>1056</v>
       </c>
       <c r="J30" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="K30" t="s">
         <v>156</v>
       </c>
       <c r="L30" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="M30" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="N30" t="s">
-        <v>260</v>
+        <v>172</v>
       </c>
       <c r="O30" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="P30" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="Q30" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="R30" t="s">
-        <v>402</v>
+        <v>269</v>
       </c>
       <c r="S30" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+        <v>414</v>
+      </c>
+      <c r="T30" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3517,10 +3643,10 @@
         <v>6422016</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E31">
         <v>429.99</v>
@@ -3529,7 +3655,7 @@
         <v>228</v>
       </c>
       <c r="G31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3541,31 +3667,34 @@
         <v>136</v>
       </c>
       <c r="K31" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L31" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="M31" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="N31" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="O31" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="P31" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="Q31" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="R31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="S31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3573,10 +3702,10 @@
         <v>2698063</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E32">
         <v>1499.99</v>
@@ -3585,7 +3714,7 @@
         <v>347</v>
       </c>
       <c r="G32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H32">
         <v>100</v>
@@ -3594,40 +3723,43 @@
         <v>1129</v>
       </c>
       <c r="J32" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K32" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L32" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="M32" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="N32" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="O32" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="P32" t="s">
-        <v>332</v>
+        <v>262</v>
       </c>
       <c r="Q32" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="R32" t="s">
-        <v>249</v>
+        <v>385</v>
       </c>
       <c r="S32" t="s">
-        <v>396</v>
+        <v>261</v>
       </c>
       <c r="T32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+        <v>408</v>
+      </c>
+      <c r="U32" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3635,10 +3767,10 @@
         <v>4380092</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E33">
         <v>479.99</v>
@@ -3647,7 +3779,7 @@
         <v>245</v>
       </c>
       <c r="G33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H33">
         <v>70</v>
@@ -3656,37 +3788,40 @@
         <v>1131</v>
       </c>
       <c r="J33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K33" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L33" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="M33" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="N33" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="O33" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="P33" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="Q33" t="s">
-        <v>249</v>
+        <v>334</v>
       </c>
       <c r="R33" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="T33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3694,10 +3829,10 @@
         <v>1213176</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E34">
         <v>299.99</v>
@@ -3706,7 +3841,7 @@
         <v>271</v>
       </c>
       <c r="G34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H34">
         <v>30</v>
@@ -3715,43 +3850,46 @@
         <v>1140</v>
       </c>
       <c r="J34" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K34" t="s">
         <v>155</v>
       </c>
       <c r="L34" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="M34" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="N34" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="O34" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="P34" t="s">
-        <v>316</v>
+        <v>265</v>
       </c>
       <c r="Q34" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="R34" t="s">
-        <v>249</v>
+        <v>374</v>
       </c>
       <c r="S34" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T34" t="s">
-        <v>407</v>
+        <v>269</v>
       </c>
       <c r="U34" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+        <v>419</v>
+      </c>
+      <c r="V34" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3759,10 +3897,10 @@
         <v>1242824</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E35">
         <v>379.99</v>
@@ -3771,7 +3909,7 @@
         <v>264</v>
       </c>
       <c r="G35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3780,43 +3918,46 @@
         <v>1141</v>
       </c>
       <c r="J35" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K35" t="s">
         <v>155</v>
       </c>
       <c r="L35" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="M35" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="N35" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="O35" t="s">
-        <v>286</v>
+        <v>230</v>
       </c>
       <c r="P35" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="Q35" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="R35" t="s">
-        <v>249</v>
+        <v>386</v>
       </c>
       <c r="S35" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T35" t="s">
-        <v>422</v>
+        <v>269</v>
       </c>
       <c r="U35" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+        <v>434</v>
+      </c>
+      <c r="V35" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3824,10 +3965,10 @@
         <v>2351018</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E36">
         <v>219.99</v>
@@ -3836,7 +3977,7 @@
         <v>102</v>
       </c>
       <c r="G36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H36">
         <v>10</v>
@@ -3845,40 +3986,43 @@
         <v>1142</v>
       </c>
       <c r="J36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K36" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L36" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="M36" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="N36" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
       <c r="O36" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="P36" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="Q36" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="R36" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S36" t="s">
-        <v>398</v>
+        <v>269</v>
       </c>
       <c r="T36" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+        <v>410</v>
+      </c>
+      <c r="U36" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3886,10 +4030,10 @@
         <v>5410021</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E37">
         <v>429.99</v>
@@ -3898,7 +4042,7 @@
         <v>208</v>
       </c>
       <c r="G37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H37">
         <v>70</v>
@@ -3910,34 +4054,37 @@
         <v>136</v>
       </c>
       <c r="K37" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L37" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="M37" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="N37" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="O37" t="s">
-        <v>292</v>
+        <v>230</v>
       </c>
       <c r="P37" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="Q37" t="s">
-        <v>249</v>
+        <v>334</v>
       </c>
       <c r="R37" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="T37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3945,10 +4092,10 @@
         <v>2783415</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E38">
         <v>799.99</v>
@@ -3957,7 +4104,7 @@
         <v>345</v>
       </c>
       <c r="G38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3966,43 +4113,46 @@
         <v>1238</v>
       </c>
       <c r="J38" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L38" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="M38" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="N38" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="O38" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="P38" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="Q38" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="R38" t="s">
-        <v>249</v>
+        <v>387</v>
       </c>
       <c r="S38" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T38" t="s">
-        <v>141</v>
+        <v>269</v>
       </c>
       <c r="U38" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+        <v>153</v>
+      </c>
+      <c r="V38" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4010,10 +4160,10 @@
         <v>3250006</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E39">
         <v>599.99</v>
@@ -4022,7 +4172,7 @@
         <v>265</v>
       </c>
       <c r="G39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4031,43 +4181,46 @@
         <v>1311</v>
       </c>
       <c r="J39" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K39" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L39" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="M39" t="s">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="N39" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O39" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="P39" t="s">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c r="Q39" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="R39" t="s">
-        <v>403</v>
+        <v>172</v>
       </c>
       <c r="S39" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="T39" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="U39" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+        <v>418</v>
+      </c>
+      <c r="V39" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4075,10 +4228,10 @@
         <v>1052096</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E40">
         <v>149.99</v>
@@ -4087,7 +4240,7 @@
         <v>122</v>
       </c>
       <c r="G40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H40">
         <v>10</v>
@@ -4096,43 +4249,46 @@
         <v>1379</v>
       </c>
       <c r="J40" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="K40" t="s">
         <v>156</v>
       </c>
       <c r="L40" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="M40" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="N40" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="O40" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="P40" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="Q40" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="R40" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="S40" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T40" t="s">
-        <v>402</v>
+        <v>269</v>
       </c>
       <c r="U40" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
+        <v>414</v>
+      </c>
+      <c r="V40" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4140,10 +4296,10 @@
         <v>2821014</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E41">
         <v>479.99</v>
@@ -4152,7 +4308,7 @@
         <v>101</v>
       </c>
       <c r="G41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H41">
         <v>20</v>
@@ -4161,43 +4317,46 @@
         <v>1391</v>
       </c>
       <c r="J41" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="K41" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L41" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="M41" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="N41" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="O41" t="s">
-        <v>286</v>
+        <v>230</v>
       </c>
       <c r="P41" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="Q41" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="R41" t="s">
-        <v>249</v>
+        <v>388</v>
       </c>
       <c r="S41" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T41" t="s">
-        <v>423</v>
+        <v>269</v>
       </c>
       <c r="U41" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
+        <v>435</v>
+      </c>
+      <c r="V41" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4205,10 +4364,10 @@
         <v>1054012</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E42">
         <v>199.99</v>
@@ -4217,7 +4376,7 @@
         <v>187</v>
       </c>
       <c r="G42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H42">
         <v>20</v>
@@ -4229,37 +4388,40 @@
         <v>134</v>
       </c>
       <c r="K42" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L42" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="M42" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="N42" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
       <c r="O42" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="P42" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="Q42" t="s">
-        <v>249</v>
+        <v>334</v>
       </c>
       <c r="R42" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S42" t="s">
-        <v>398</v>
+        <v>269</v>
       </c>
       <c r="T42" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
+        <v>410</v>
+      </c>
+      <c r="U42" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4267,10 +4429,10 @@
         <v>1039004</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E43">
         <v>149.99</v>
@@ -4279,7 +4441,7 @@
         <v>46</v>
       </c>
       <c r="G43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H43">
         <v>20</v>
@@ -4288,43 +4450,46 @@
         <v>1437</v>
       </c>
       <c r="J43" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K43" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M43" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="N43" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="O43" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="P43" t="s">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c r="Q43" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="R43" t="s">
-        <v>249</v>
+        <v>330</v>
       </c>
       <c r="S43" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T43" t="s">
-        <v>424</v>
+        <v>269</v>
       </c>
       <c r="U43" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
+        <v>436</v>
+      </c>
+      <c r="V43" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4332,10 +4497,10 @@
         <v>3813002</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E44">
         <v>899.99</v>
@@ -4344,7 +4509,7 @@
         <v>345</v>
       </c>
       <c r="G44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H44">
         <v>50</v>
@@ -4353,40 +4518,43 @@
         <v>1453</v>
       </c>
       <c r="J44" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="K44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L44" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="M44" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
       <c r="N44" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="O44" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="P44" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="Q44" t="s">
-        <v>377</v>
+        <v>318</v>
       </c>
       <c r="R44" t="s">
-        <v>249</v>
+        <v>389</v>
       </c>
       <c r="S44" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T44" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="U44" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4394,10 +4562,10 @@
         <v>3733031</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E45">
         <v>749.99</v>
@@ -4406,7 +4574,7 @@
         <v>227</v>
       </c>
       <c r="G45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H45">
         <v>50</v>
@@ -4415,40 +4583,43 @@
         <v>1469</v>
       </c>
       <c r="J45" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="K45" t="s">
         <v>158</v>
       </c>
       <c r="L45" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="M45" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="N45" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="O45" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="P45" t="s">
-        <v>335</v>
+        <v>281</v>
       </c>
       <c r="Q45" t="s">
-        <v>249</v>
+        <v>347</v>
       </c>
       <c r="R45" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S45" t="s">
-        <v>413</v>
+        <v>269</v>
       </c>
       <c r="T45" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
+        <v>425</v>
+      </c>
+      <c r="U45" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4456,10 +4627,10 @@
         <v>7068146</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E46">
         <v>749.99</v>
@@ -4468,7 +4639,7 @@
         <v>193</v>
       </c>
       <c r="G46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H46">
         <v>100</v>
@@ -4477,37 +4648,40 @@
         <v>1474</v>
       </c>
       <c r="J46" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K46" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L46" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="M46" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="N46" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="O46" t="s">
-        <v>292</v>
+        <v>230</v>
       </c>
       <c r="P46" t="s">
-        <v>142</v>
+        <v>304</v>
       </c>
       <c r="Q46" t="s">
-        <v>249</v>
+        <v>154</v>
       </c>
       <c r="R46" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S46" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="T46" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4515,10 +4689,10 @@
         <v>5412152</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E47">
         <v>899.99</v>
@@ -4527,7 +4701,7 @@
         <v>103</v>
       </c>
       <c r="G47" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H47">
         <v>100</v>
@@ -4536,37 +4710,40 @@
         <v>1531</v>
       </c>
       <c r="J47" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K47" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L47" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="M47" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="N47" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="O47" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="P47" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="Q47" t="s">
-        <v>249</v>
+        <v>336</v>
       </c>
       <c r="R47" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S47" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="T47" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4574,10 +4751,10 @@
         <v>3417011</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E48">
         <v>479.99</v>
@@ -4586,7 +4763,7 @@
         <v>1325</v>
       </c>
       <c r="G48" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4595,37 +4772,40 @@
         <v>1542</v>
       </c>
       <c r="J48" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="K48" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="L48" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="M48" t="s">
-        <v>249</v>
+        <v>148</v>
       </c>
       <c r="N48" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O48" t="s">
-        <v>157</v>
+        <v>269</v>
       </c>
       <c r="P48" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="Q48" t="s">
-        <v>319</v>
+        <v>172</v>
       </c>
       <c r="R48" t="s">
-        <v>404</v>
+        <v>331</v>
       </c>
       <c r="S48" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
+        <v>416</v>
+      </c>
+      <c r="T48" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4633,10 +4813,10 @@
         <v>4629257</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E49">
         <v>229.99</v>
@@ -4645,7 +4825,7 @@
         <v>243</v>
       </c>
       <c r="G49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4654,34 +4834,37 @@
         <v>1582</v>
       </c>
       <c r="J49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K49" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L49" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="M49" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="N49" t="s">
-        <v>262</v>
+        <v>172</v>
       </c>
       <c r="O49" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="P49" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="Q49" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="R49" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="S49" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4689,10 +4872,10 @@
         <v>2257095</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E50">
         <v>449.99</v>
@@ -4701,7 +4884,7 @@
         <v>161</v>
       </c>
       <c r="G50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4710,43 +4893,46 @@
         <v>1616</v>
       </c>
       <c r="J50" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="K50" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L50" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="M50" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="N50" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="O50" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="P50" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="Q50" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="R50" t="s">
-        <v>249</v>
+        <v>390</v>
       </c>
       <c r="S50" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T50" t="s">
-        <v>423</v>
+        <v>269</v>
       </c>
       <c r="U50" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
+        <v>435</v>
+      </c>
+      <c r="V50" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4754,10 +4940,10 @@
         <v>6428116</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E51">
         <v>999.99</v>
@@ -4766,7 +4952,7 @@
         <v>75</v>
       </c>
       <c r="G51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4775,43 +4961,46 @@
         <v>1637</v>
       </c>
       <c r="J51" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="K51" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L51" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="M51" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="N51" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="O51" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="P51" t="s">
-        <v>336</v>
+        <v>262</v>
       </c>
       <c r="Q51" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="R51" t="s">
-        <v>249</v>
+        <v>391</v>
       </c>
       <c r="S51" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T51" t="s">
-        <v>414</v>
+        <v>269</v>
       </c>
       <c r="U51" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
+        <v>426</v>
+      </c>
+      <c r="V51" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4819,10 +5008,10 @@
         <v>8451121</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E52">
         <v>169.99</v>
@@ -4831,7 +5020,7 @@
         <v>999</v>
       </c>
       <c r="G52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -4840,40 +5029,43 @@
         <v>1641</v>
       </c>
       <c r="J52" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="K52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L52" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="M52" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="N52" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O52" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="P52" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="Q52" t="s">
-        <v>260</v>
+        <v>172</v>
       </c>
       <c r="R52" t="s">
-        <v>180</v>
+        <v>272</v>
       </c>
       <c r="S52" t="s">
-        <v>406</v>
+        <v>192</v>
       </c>
       <c r="T52" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
+        <v>418</v>
+      </c>
+      <c r="U52" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4881,10 +5073,10 @@
         <v>2004035</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E53">
         <v>1799.99</v>
@@ -4893,7 +5085,7 @@
         <v>266</v>
       </c>
       <c r="G53" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H53">
         <v>300</v>
@@ -4902,40 +5094,43 @@
         <v>1708</v>
       </c>
       <c r="J53" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="K53" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L53" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="M53" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="N53" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="O53" t="s">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="P53" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="Q53" t="s">
-        <v>249</v>
+        <v>349</v>
       </c>
       <c r="R53" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S53" t="s">
-        <v>414</v>
+        <v>269</v>
       </c>
       <c r="T53" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21">
+        <v>426</v>
+      </c>
+      <c r="U53" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4943,10 +5138,10 @@
         <v>1053086</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E54">
         <v>169.99</v>
@@ -4955,7 +5150,7 @@
         <v>87</v>
       </c>
       <c r="G54" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H54">
         <v>20</v>
@@ -4964,40 +5159,43 @@
         <v>1743</v>
       </c>
       <c r="J54" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="K54" t="s">
         <v>156</v>
       </c>
       <c r="L54" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="M54" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="N54" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
       <c r="O54" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="P54" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="Q54" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="R54" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S54" t="s">
-        <v>402</v>
+        <v>269</v>
       </c>
       <c r="T54" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
+        <v>414</v>
+      </c>
+      <c r="U54" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5005,10 +5203,10 @@
         <v>6010007</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E55">
         <v>649.99</v>
@@ -5017,7 +5215,7 @@
         <v>149</v>
       </c>
       <c r="G55" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H55">
         <v>100</v>
@@ -5026,37 +5224,40 @@
         <v>1751</v>
       </c>
       <c r="J55" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="K55" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L55" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="M55" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="N55" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="O55" t="s">
-        <v>292</v>
+        <v>230</v>
       </c>
       <c r="P55" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="Q55" t="s">
-        <v>249</v>
+        <v>350</v>
       </c>
       <c r="R55" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S55" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="T55" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5064,10 +5265,10 @@
         <v>2698072</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E56">
         <v>2499.99</v>
@@ -5076,7 +5277,7 @@
         <v>227</v>
       </c>
       <c r="G56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H56">
         <v>100</v>
@@ -5085,40 +5286,43 @@
         <v>1813</v>
       </c>
       <c r="J56" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="K56" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L56" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="M56" t="s">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="N56" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="O56" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="P56" t="s">
-        <v>321</v>
+        <v>262</v>
       </c>
       <c r="Q56" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="R56" t="s">
-        <v>249</v>
+        <v>349</v>
       </c>
       <c r="S56" t="s">
-        <v>396</v>
+        <v>261</v>
       </c>
       <c r="T56" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
+        <v>408</v>
+      </c>
+      <c r="U56" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5126,10 +5330,10 @@
         <v>3043098</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E57">
         <v>529.99</v>
@@ -5138,7 +5342,7 @@
         <v>171</v>
       </c>
       <c r="G57" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5147,40 +5351,43 @@
         <v>1814</v>
       </c>
       <c r="J57" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="K57" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L57" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="M57" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="N57" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="O57" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="P57" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="Q57" t="s">
-        <v>249</v>
+        <v>351</v>
       </c>
       <c r="R57" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S57" t="s">
-        <v>413</v>
+        <v>269</v>
       </c>
       <c r="T57" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
+        <v>425</v>
+      </c>
+      <c r="U57" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5188,10 +5395,10 @@
         <v>3892017</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E58">
         <v>449.99</v>
@@ -5200,7 +5407,7 @@
         <v>142</v>
       </c>
       <c r="G58" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H58">
         <v>30</v>
@@ -5209,43 +5416,46 @@
         <v>1860</v>
       </c>
       <c r="J58" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="K58" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="L58" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="M58" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="N58" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="O58" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="P58" t="s">
-        <v>329</v>
+        <v>265</v>
       </c>
       <c r="Q58" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="R58" t="s">
-        <v>249</v>
+        <v>392</v>
       </c>
       <c r="S58" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T58" t="s">
-        <v>425</v>
+        <v>269</v>
       </c>
       <c r="U58" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21">
+        <v>437</v>
+      </c>
+      <c r="V58" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5253,10 +5463,10 @@
         <v>4213306</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E59">
         <v>1299.99</v>
@@ -5265,7 +5475,7 @@
         <v>27</v>
       </c>
       <c r="G59" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H59">
         <v>300</v>
@@ -5274,34 +5484,37 @@
         <v>1924</v>
       </c>
       <c r="J59" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K59" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L59" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="M59" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="N59" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="O59" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="P59" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="Q59" t="s">
-        <v>257</v>
+        <v>352</v>
       </c>
       <c r="R59" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="S59" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5309,10 +5522,10 @@
         <v>3953166</v>
       </c>
       <c r="C60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E60">
         <v>1199.99</v>
@@ -5321,7 +5534,7 @@
         <v>330</v>
       </c>
       <c r="G60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H60">
         <v>100</v>
@@ -5330,40 +5543,43 @@
         <v>1955</v>
       </c>
       <c r="J60" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K60" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L60" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="M60" t="s">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="N60" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="O60" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="P60" t="s">
-        <v>341</v>
+        <v>262</v>
       </c>
       <c r="Q60" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="R60" t="s">
-        <v>249</v>
+        <v>393</v>
       </c>
       <c r="S60" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T60" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="U60" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5371,10 +5587,10 @@
         <v>3733022</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D61" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E61">
         <v>189.99</v>
@@ -5383,7 +5599,7 @@
         <v>60</v>
       </c>
       <c r="G61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5392,37 +5608,40 @@
         <v>1993</v>
       </c>
       <c r="J61" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K61" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L61" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="M61" t="s">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="N61" t="s">
-        <v>264</v>
+        <v>172</v>
       </c>
       <c r="O61" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="P61" t="s">
-        <v>249</v>
+        <v>310</v>
       </c>
       <c r="Q61" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="R61" t="s">
-        <v>398</v>
+        <v>269</v>
       </c>
       <c r="S61" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21">
+        <v>410</v>
+      </c>
+      <c r="T61" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5430,10 +5649,10 @@
         <v>8040004</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E62">
         <v>199.99</v>
@@ -5442,7 +5661,7 @@
         <v>536</v>
       </c>
       <c r="G62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -5451,40 +5670,43 @@
         <v>2012</v>
       </c>
       <c r="J62" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L62" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="M62" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="N62" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O62" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="P62" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="Q62" t="s">
-        <v>260</v>
+        <v>172</v>
       </c>
       <c r="R62" t="s">
-        <v>180</v>
+        <v>272</v>
       </c>
       <c r="S62" t="s">
-        <v>406</v>
+        <v>192</v>
       </c>
       <c r="T62" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21">
+        <v>418</v>
+      </c>
+      <c r="U62" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5492,10 +5714,10 @@
         <v>3858057</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E63">
         <v>229.99</v>
@@ -5504,7 +5726,7 @@
         <v>112</v>
       </c>
       <c r="G63" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -5513,40 +5735,43 @@
         <v>2073</v>
       </c>
       <c r="J63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K63" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L63" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="M63" t="s">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="N63" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="O63" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="P63" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="Q63" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="R63" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S63" t="s">
-        <v>134</v>
+        <v>269</v>
       </c>
       <c r="T63" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21">
+        <v>146</v>
+      </c>
+      <c r="U63" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5554,10 +5779,10 @@
         <v>3953157</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E64">
         <v>699.99</v>
@@ -5566,7 +5791,7 @@
         <v>233</v>
       </c>
       <c r="G64" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H64">
         <v>50</v>
@@ -5578,37 +5803,40 @@
         <v>136</v>
       </c>
       <c r="K64" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L64" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="M64" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="N64" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="O64" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="P64" t="s">
-        <v>342</v>
+        <v>262</v>
       </c>
       <c r="Q64" t="s">
-        <v>290</v>
+        <v>354</v>
       </c>
       <c r="R64" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="S64" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T64" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="U64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5616,10 +5844,10 @@
         <v>2698036</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E65">
         <v>999.99</v>
@@ -5628,7 +5856,7 @@
         <v>204</v>
       </c>
       <c r="G65" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -5637,40 +5865,43 @@
         <v>2189</v>
       </c>
       <c r="J65" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="K65" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L65" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="M65" t="s">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="N65" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="O65" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="P65" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="Q65" t="s">
-        <v>382</v>
+        <v>317</v>
       </c>
       <c r="R65" t="s">
-        <v>249</v>
+        <v>394</v>
       </c>
       <c r="S65" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T65" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="U65" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5678,10 +5909,10 @@
         <v>4255103</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E66">
         <v>799.99</v>
@@ -5690,7 +5921,7 @@
         <v>49</v>
       </c>
       <c r="G66" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -5699,37 +5930,40 @@
         <v>2195</v>
       </c>
       <c r="J66" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K66" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L66" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="M66" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N66" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O66" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="P66" t="s">
-        <v>249</v>
+        <v>311</v>
       </c>
       <c r="Q66" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="R66" t="s">
-        <v>405</v>
+        <v>269</v>
       </c>
       <c r="S66" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21">
+        <v>417</v>
+      </c>
+      <c r="T66" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5737,10 +5971,10 @@
         <v>4507056</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E67">
         <v>1799.99</v>
@@ -5749,7 +5983,7 @@
         <v>136</v>
       </c>
       <c r="G67" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H67">
         <v>300</v>
@@ -5758,40 +5992,43 @@
         <v>2196</v>
       </c>
       <c r="J67" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K67" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L67" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="M67" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="N67" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="O67" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="P67" t="s">
-        <v>326</v>
+        <v>262</v>
       </c>
       <c r="Q67" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="R67" t="s">
-        <v>340</v>
+        <v>395</v>
       </c>
       <c r="S67" t="s">
-        <v>257</v>
+        <v>352</v>
       </c>
       <c r="T67" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="U67" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5799,10 +6036,10 @@
         <v>4506048</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E68">
         <v>1999.99</v>
@@ -5811,7 +6048,7 @@
         <v>229</v>
       </c>
       <c r="G68" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H68">
         <v>300</v>
@@ -5820,40 +6057,43 @@
         <v>2380</v>
       </c>
       <c r="J68" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K68" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L68" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="M68" t="s">
-        <v>155</v>
+        <v>232</v>
       </c>
       <c r="N68" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="O68" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="P68" t="s">
-        <v>343</v>
+        <v>262</v>
       </c>
       <c r="Q68" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="R68" t="s">
-        <v>249</v>
+        <v>395</v>
       </c>
       <c r="S68" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T68" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="U68" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5861,10 +6101,10 @@
         <v>7306011</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D69" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E69">
         <v>299.99</v>
@@ -5873,7 +6113,7 @@
         <v>241</v>
       </c>
       <c r="G69" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H69">
         <v>30</v>
@@ -5885,31 +6125,34 @@
         <v>136</v>
       </c>
       <c r="K69" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="L69" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="M69" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="N69" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O69" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="P69" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q69" t="s">
-        <v>136</v>
+        <v>269</v>
       </c>
       <c r="R69" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21">
+        <v>148</v>
+      </c>
+      <c r="S69" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5917,10 +6160,10 @@
         <v>3892026</v>
       </c>
       <c r="C70" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E70">
         <v>629.99</v>
@@ -5929,7 +6172,7 @@
         <v>162</v>
       </c>
       <c r="G70" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -5938,43 +6181,46 @@
         <v>2406</v>
       </c>
       <c r="J70" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="K70" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L70" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="M70" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="N70" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="O70" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="P70" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="Q70" t="s">
-        <v>384</v>
+        <v>318</v>
       </c>
       <c r="R70" t="s">
-        <v>249</v>
+        <v>396</v>
       </c>
       <c r="S70" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T70" t="s">
-        <v>413</v>
+        <v>269</v>
       </c>
       <c r="U70" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21">
+        <v>425</v>
+      </c>
+      <c r="V70" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5982,10 +6228,10 @@
         <v>9105014</v>
       </c>
       <c r="C71" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D71" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E71">
         <v>139.99</v>
@@ -5994,7 +6240,7 @@
         <v>663</v>
       </c>
       <c r="G71" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H71">
         <v>10</v>
@@ -6003,40 +6249,43 @@
         <v>2470</v>
       </c>
       <c r="J71" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K71" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="L71" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="M71" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="N71" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
       <c r="O71" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="P71" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="Q71" t="s">
-        <v>249</v>
+        <v>356</v>
       </c>
       <c r="R71" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S71" t="s">
-        <v>162</v>
+        <v>269</v>
       </c>
       <c r="T71" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21">
+        <v>174</v>
+      </c>
+      <c r="U71" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -6044,10 +6293,10 @@
         <v>2698045</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E72">
         <v>899.99</v>
@@ -6056,7 +6305,7 @@
         <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H72">
         <v>100</v>
@@ -6065,40 +6314,43 @@
         <v>2474</v>
       </c>
       <c r="J72" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K72" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L72" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="M72" t="s">
-        <v>156</v>
+        <v>236</v>
       </c>
       <c r="N72" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="O72" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="P72" t="s">
-        <v>345</v>
+        <v>262</v>
       </c>
       <c r="Q72" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="R72" t="s">
-        <v>249</v>
+        <v>397</v>
       </c>
       <c r="S72" t="s">
-        <v>396</v>
+        <v>261</v>
       </c>
       <c r="T72" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21">
+        <v>408</v>
+      </c>
+      <c r="U72" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -6106,10 +6358,10 @@
         <v>3251014</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D73" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E73">
         <v>999.99</v>
@@ -6118,7 +6370,7 @@
         <v>144</v>
       </c>
       <c r="G73" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -6127,43 +6379,46 @@
         <v>2477</v>
       </c>
       <c r="J73" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="K73" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L73" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="M73" t="s">
-        <v>160</v>
+        <v>237</v>
       </c>
       <c r="N73" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="O73" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="P73" t="s">
-        <v>346</v>
+        <v>262</v>
       </c>
       <c r="Q73" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="R73" t="s">
-        <v>249</v>
+        <v>398</v>
       </c>
       <c r="S73" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T73" t="s">
-        <v>414</v>
+        <v>269</v>
       </c>
       <c r="U73" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21">
+        <v>426</v>
+      </c>
+      <c r="V73" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -6171,10 +6426,10 @@
         <v>3858039</v>
       </c>
       <c r="C74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E74">
         <v>1499.99</v>
@@ -6183,7 +6438,7 @@
         <v>111</v>
       </c>
       <c r="G74" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H74">
         <v>200</v>
@@ -6192,40 +6447,43 @@
         <v>2526</v>
       </c>
       <c r="J74" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K74" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L74" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="M74" t="s">
+        <v>238</v>
+      </c>
+      <c r="N74" t="s">
+        <v>172</v>
+      </c>
+      <c r="O74" t="s">
+        <v>230</v>
+      </c>
+      <c r="P74" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>359</v>
+      </c>
+      <c r="R74" t="s">
+        <v>261</v>
+      </c>
+      <c r="S74" t="s">
+        <v>269</v>
+      </c>
+      <c r="T74" t="s">
         <v>160</v>
       </c>
-      <c r="N74" t="s">
-        <v>218</v>
-      </c>
-      <c r="O74" t="s">
-        <v>301</v>
-      </c>
-      <c r="P74" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>249</v>
-      </c>
-      <c r="R74" t="s">
-        <v>257</v>
-      </c>
-      <c r="S74" t="s">
-        <v>148</v>
-      </c>
-      <c r="T74" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21">
+      <c r="U74" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -6233,10 +6491,10 @@
         <v>9217017</v>
       </c>
       <c r="C75" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E75">
         <v>119.99</v>
@@ -6245,7 +6503,7 @@
         <v>137</v>
       </c>
       <c r="G75" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H75">
         <v>30</v>
@@ -6254,40 +6512,43 @@
         <v>2598</v>
       </c>
       <c r="J75" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K75" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="L75" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="M75" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="N75" t="s">
-        <v>267</v>
+        <v>172</v>
       </c>
       <c r="O75" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="P75" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="Q75" t="s">
-        <v>249</v>
+        <v>360</v>
       </c>
       <c r="R75" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S75" t="s">
-        <v>415</v>
+        <v>269</v>
       </c>
       <c r="T75" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21">
+        <v>427</v>
+      </c>
+      <c r="U75" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -6295,10 +6556,10 @@
         <v>4209600</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E76">
         <v>1799.99</v>
@@ -6307,7 +6568,7 @@
         <v>17</v>
       </c>
       <c r="G76" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H76">
         <v>300</v>
@@ -6316,34 +6577,37 @@
         <v>2707</v>
       </c>
       <c r="J76" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K76" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L76" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="M76" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="N76" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="O76" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="P76" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="Q76" t="s">
-        <v>257</v>
+        <v>352</v>
       </c>
       <c r="R76" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="S76" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -6351,10 +6615,10 @@
         <v>3733013</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E77">
         <v>1999.99</v>
@@ -6363,7 +6627,7 @@
         <v>169</v>
       </c>
       <c r="G77" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H77">
         <v>200</v>
@@ -6372,40 +6636,43 @@
         <v>2751</v>
       </c>
       <c r="J77" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="K77" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L77" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="M77" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="N77" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="O77" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="P77" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="Q77" t="s">
-        <v>249</v>
+        <v>361</v>
       </c>
       <c r="R77" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S77" t="s">
-        <v>165</v>
+        <v>269</v>
       </c>
       <c r="T77" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21">
+        <v>177</v>
+      </c>
+      <c r="U77" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -6413,10 +6680,10 @@
         <v>4380074</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E78">
         <v>2299.99</v>
@@ -6425,7 +6692,7 @@
         <v>182</v>
       </c>
       <c r="G78" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H78">
         <v>300</v>
@@ -6434,40 +6701,43 @@
         <v>2804</v>
       </c>
       <c r="J78" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="K78" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L78" t="s">
+        <v>169</v>
+      </c>
+      <c r="M78" t="s">
+        <v>242</v>
+      </c>
+      <c r="N78" t="s">
+        <v>167</v>
+      </c>
+      <c r="O78" t="s">
         <v>230</v>
       </c>
-      <c r="M78" t="s">
-        <v>155</v>
-      </c>
-      <c r="N78" t="s">
-        <v>218</v>
-      </c>
-      <c r="O78" t="s">
-        <v>250</v>
-      </c>
       <c r="P78" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="Q78" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="R78" t="s">
-        <v>249</v>
+        <v>399</v>
       </c>
       <c r="S78" t="s">
-        <v>396</v>
+        <v>261</v>
       </c>
       <c r="T78" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21">
+        <v>408</v>
+      </c>
+      <c r="U78" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -6475,10 +6745,10 @@
         <v>9481052</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E79">
         <v>799.99</v>
@@ -6487,7 +6757,7 @@
         <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H79">
         <v>100</v>
@@ -6496,37 +6766,40 @@
         <v>2892</v>
       </c>
       <c r="J79" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="K79" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L79" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="M79" t="s">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="N79" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="O79" t="s">
-        <v>305</v>
+        <v>230</v>
       </c>
       <c r="P79" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="Q79" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="R79" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S79" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="T79" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6534,10 +6807,10 @@
         <v>3793044</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E80">
         <v>1299.99</v>
@@ -6546,7 +6819,7 @@
         <v>200</v>
       </c>
       <c r="G80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -6555,40 +6828,43 @@
         <v>2904</v>
       </c>
       <c r="J80" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K80" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L80" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="M80" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="N80" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="O80" t="s">
-        <v>306</v>
+        <v>230</v>
       </c>
       <c r="P80" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="Q80" t="s">
-        <v>249</v>
+        <v>363</v>
       </c>
       <c r="R80" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S80" t="s">
-        <v>141</v>
+        <v>269</v>
       </c>
       <c r="T80" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21">
+        <v>153</v>
+      </c>
+      <c r="U80" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6596,10 +6872,10 @@
         <v>9212012</v>
       </c>
       <c r="C81" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D81" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E81">
         <v>999.99</v>
@@ -6608,7 +6884,7 @@
         <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H81">
         <v>200</v>
@@ -6617,43 +6893,46 @@
         <v>3000</v>
       </c>
       <c r="J81" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K81" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L81" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="M81" t="s">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="N81" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="O81" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="P81" t="s">
-        <v>352</v>
+        <v>262</v>
       </c>
       <c r="Q81" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="R81" t="s">
-        <v>249</v>
+        <v>400</v>
       </c>
       <c r="S81" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T81" t="s">
-        <v>161</v>
+        <v>269</v>
       </c>
       <c r="U81" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21">
+        <v>173</v>
+      </c>
+      <c r="V81" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6661,10 +6940,10 @@
         <v>4244028</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D82" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E82">
         <v>599.99</v>
@@ -6673,7 +6952,7 @@
         <v>117</v>
       </c>
       <c r="G82" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -6682,37 +6961,40 @@
         <v>3017</v>
       </c>
       <c r="J82" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K82" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="L82" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="M82" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N82" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="O82" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="P82" t="s">
-        <v>249</v>
+        <v>319</v>
       </c>
       <c r="Q82" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="R82" t="s">
-        <v>407</v>
+        <v>269</v>
       </c>
       <c r="S82" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21">
+        <v>419</v>
+      </c>
+      <c r="T82" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6720,10 +7002,10 @@
         <v>2698105</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E83">
         <v>799.99</v>
@@ -6732,7 +7014,7 @@
         <v>168</v>
       </c>
       <c r="G83" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -6741,40 +7023,43 @@
         <v>3135</v>
       </c>
       <c r="J83" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K83" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L83" t="s">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="M83" t="s">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="N83" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="O83" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="P83" t="s">
-        <v>327</v>
+        <v>262</v>
       </c>
       <c r="Q83" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="R83" t="s">
-        <v>249</v>
+        <v>401</v>
       </c>
       <c r="S83" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T83" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="U83" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6782,10 +7067,10 @@
         <v>3858048</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D84" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E84">
         <v>1299.99</v>
@@ -6794,7 +7079,7 @@
         <v>54</v>
       </c>
       <c r="G84" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -6803,40 +7088,43 @@
         <v>3198</v>
       </c>
       <c r="J84" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="K84" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L84" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="M84" t="s">
-        <v>160</v>
+        <v>247</v>
       </c>
       <c r="N84" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="O84" t="s">
-        <v>308</v>
+        <v>230</v>
       </c>
       <c r="P84" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="Q84" t="s">
-        <v>249</v>
+        <v>365</v>
       </c>
       <c r="R84" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S84" t="s">
-        <v>152</v>
+        <v>269</v>
       </c>
       <c r="T84" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21">
+        <v>164</v>
+      </c>
+      <c r="U84" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6844,10 +7132,10 @@
         <v>3892035</v>
       </c>
       <c r="C85" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E85">
         <v>729.99</v>
@@ -6856,7 +7144,7 @@
         <v>214</v>
       </c>
       <c r="G85" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -6865,43 +7153,46 @@
         <v>3259</v>
       </c>
       <c r="J85" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K85" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L85" t="s">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="M85" t="s">
-        <v>155</v>
+        <v>248</v>
       </c>
       <c r="N85" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="O85" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="P85" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="Q85" t="s">
-        <v>390</v>
+        <v>318</v>
       </c>
       <c r="R85" t="s">
-        <v>249</v>
+        <v>402</v>
       </c>
       <c r="S85" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T85" t="s">
-        <v>161</v>
+        <v>269</v>
       </c>
       <c r="U85" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21">
+        <v>173</v>
+      </c>
+      <c r="V85" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6909,10 +7200,10 @@
         <v>5184121</v>
       </c>
       <c r="C86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D86" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E86">
         <v>2999.99</v>
@@ -6921,7 +7212,7 @@
         <v>205</v>
       </c>
       <c r="G86" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H86">
         <v>300</v>
@@ -6930,37 +7221,40 @@
         <v>3268</v>
       </c>
       <c r="J86" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K86" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L86" t="s">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c r="M86" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="N86" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="O86" t="s">
-        <v>309</v>
+        <v>230</v>
       </c>
       <c r="P86" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="Q86" t="s">
-        <v>249</v>
+        <v>366</v>
       </c>
       <c r="R86" t="s">
-        <v>396</v>
+        <v>261</v>
       </c>
       <c r="S86" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21">
+        <v>408</v>
+      </c>
+      <c r="T86" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6968,10 +7262,10 @@
         <v>4256015</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D87" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E87">
         <v>999.99</v>
@@ -6980,7 +7274,7 @@
         <v>65</v>
       </c>
       <c r="G87" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -6989,40 +7283,43 @@
         <v>3334</v>
       </c>
       <c r="J87" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K87" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L87" t="s">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="M87" t="s">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="N87" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="O87" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="P87" t="s">
-        <v>355</v>
+        <v>277</v>
       </c>
       <c r="Q87" t="s">
-        <v>249</v>
+        <v>367</v>
       </c>
       <c r="R87" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="S87" t="s">
-        <v>161</v>
+        <v>269</v>
       </c>
       <c r="T87" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21">
+        <v>173</v>
+      </c>
+      <c r="U87" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -7030,10 +7327,10 @@
         <v>9212049</v>
       </c>
       <c r="C88" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D88" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E88">
         <v>1699.99</v>
@@ -7042,7 +7339,7 @@
         <v>4</v>
       </c>
       <c r="G88" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H88">
         <v>300</v>
@@ -7051,43 +7348,46 @@
         <v>3467</v>
       </c>
       <c r="J88" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="K88" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L88" t="s">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="M88" t="s">
-        <v>160</v>
+        <v>251</v>
       </c>
       <c r="N88" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="O88" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="P88" t="s">
-        <v>356</v>
+        <v>262</v>
       </c>
       <c r="Q88" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="R88" t="s">
-        <v>249</v>
+        <v>403</v>
       </c>
       <c r="S88" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T88" t="s">
-        <v>414</v>
+        <v>269</v>
       </c>
       <c r="U88" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21">
+        <v>426</v>
+      </c>
+      <c r="V88" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -7095,10 +7395,10 @@
         <v>9481034</v>
       </c>
       <c r="C89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D89" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E89">
         <v>479.99</v>
@@ -7107,7 +7407,7 @@
         <v>18</v>
       </c>
       <c r="G89" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H89">
         <v>20</v>
@@ -7116,34 +7416,37 @@
         <v>3471</v>
       </c>
       <c r="J89" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K89" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="L89" t="s">
         <v>168</v>
       </c>
       <c r="M89" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N89" t="s">
-        <v>263</v>
+        <v>172</v>
       </c>
       <c r="O89" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="P89" t="s">
-        <v>249</v>
+        <v>322</v>
       </c>
       <c r="Q89" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="R89" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="S89" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -7151,10 +7454,10 @@
         <v>3812172</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D90" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E90">
         <v>2499.98</v>
@@ -7163,7 +7466,7 @@
         <v>140</v>
       </c>
       <c r="G90" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H90">
         <v>500</v>
@@ -7172,40 +7475,43 @@
         <v>3492</v>
       </c>
       <c r="J90" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="K90" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L90" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="M90" t="s">
-        <v>155</v>
+        <v>232</v>
       </c>
       <c r="N90" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="O90" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="P90" t="s">
-        <v>357</v>
+        <v>286</v>
       </c>
       <c r="Q90" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="R90" t="s">
-        <v>249</v>
+        <v>404</v>
       </c>
       <c r="S90" t="s">
-        <v>396</v>
+        <v>261</v>
       </c>
       <c r="T90" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21">
+        <v>408</v>
+      </c>
+      <c r="U90" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -7213,10 +7519,10 @@
         <v>4213305</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E91">
         <v>1099.99</v>
@@ -7225,7 +7531,7 @@
         <v>21</v>
       </c>
       <c r="G91" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H91">
         <v>200</v>
@@ -7234,34 +7540,37 @@
         <v>3494</v>
       </c>
       <c r="J91" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K91" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L91" t="s">
-        <v>240</v>
+        <v>169</v>
       </c>
       <c r="M91" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="N91" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="O91" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="P91" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="Q91" t="s">
-        <v>257</v>
+        <v>352</v>
       </c>
       <c r="R91" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21">
+        <v>269</v>
+      </c>
+      <c r="S91" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -7269,10 +7578,10 @@
         <v>6420081</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D92" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E92">
         <v>399.99</v>
@@ -7281,7 +7590,7 @@
         <v>23</v>
       </c>
       <c r="G92" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H92">
         <v>50</v>
@@ -7293,34 +7602,37 @@
         <v>135</v>
       </c>
       <c r="K92" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L92" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="M92" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="N92" t="s">
-        <v>270</v>
+        <v>172</v>
       </c>
       <c r="O92" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="P92" t="s">
-        <v>249</v>
+        <v>323</v>
       </c>
       <c r="Q92" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="R92" t="s">
-        <v>408</v>
+        <v>269</v>
       </c>
       <c r="S92" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21">
+        <v>420</v>
+      </c>
+      <c r="T92" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -7328,10 +7640,10 @@
         <v>3729109</v>
       </c>
       <c r="C93" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D93" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E93">
         <v>199.99</v>
@@ -7340,7 +7652,7 @@
         <v>360</v>
       </c>
       <c r="G93" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -7349,37 +7661,40 @@
         <v>3577</v>
       </c>
       <c r="J93" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K93" t="s">
         <v>156</v>
       </c>
       <c r="L93" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="M93" t="s">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="N93" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="O93" t="s">
-        <v>151</v>
+        <v>283</v>
       </c>
       <c r="P93" t="s">
-        <v>249</v>
+        <v>163</v>
       </c>
       <c r="Q93" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="R93" t="s">
-        <v>402</v>
+        <v>269</v>
       </c>
       <c r="S93" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21">
+        <v>414</v>
+      </c>
+      <c r="T93" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -7387,10 +7702,10 @@
         <v>7617086</v>
       </c>
       <c r="C94" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D94" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E94">
         <v>239.99</v>
@@ -7399,7 +7714,7 @@
         <v>24</v>
       </c>
       <c r="G94" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H94">
         <v>10</v>
@@ -7408,37 +7723,40 @@
         <v>3608</v>
       </c>
       <c r="J94" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K94" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L94" t="s">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="M94" t="s">
-        <v>160</v>
+        <v>254</v>
       </c>
       <c r="N94" t="s">
-        <v>272</v>
+        <v>172</v>
       </c>
       <c r="O94" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="P94" t="s">
-        <v>249</v>
+        <v>324</v>
       </c>
       <c r="Q94" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="R94" t="s">
-        <v>159</v>
+        <v>269</v>
       </c>
       <c r="S94" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21">
+        <v>171</v>
+      </c>
+      <c r="T94" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7446,10 +7764,10 @@
         <v>1533005</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D95" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E95">
         <v>579.99</v>
@@ -7458,7 +7776,7 @@
         <v>91</v>
       </c>
       <c r="G95" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -7467,43 +7785,46 @@
         <v>4022</v>
       </c>
       <c r="J95" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K95" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L95" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="M95" t="s">
-        <v>160</v>
+        <v>255</v>
       </c>
       <c r="N95" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="O95" t="s">
-        <v>286</v>
+        <v>230</v>
       </c>
       <c r="P95" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="Q95" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="R95" t="s">
-        <v>249</v>
+        <v>405</v>
       </c>
       <c r="S95" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="T95" t="s">
-        <v>161</v>
+        <v>269</v>
       </c>
       <c r="U95" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21">
+        <v>173</v>
+      </c>
+      <c r="V95" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7511,10 +7832,10 @@
         <v>3820029</v>
       </c>
       <c r="C96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D96" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E96">
         <v>2499.98</v>
@@ -7523,7 +7844,7 @@
         <v>115</v>
       </c>
       <c r="G96" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H96">
         <v>300</v>
@@ -7532,40 +7853,43 @@
         <v>4163</v>
       </c>
       <c r="J96" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K96" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L96" t="s">
-        <v>244</v>
+        <v>169</v>
       </c>
       <c r="M96" t="s">
-        <v>155</v>
+        <v>256</v>
       </c>
       <c r="N96" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="O96" t="s">
-        <v>313</v>
+        <v>230</v>
       </c>
       <c r="P96" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="Q96" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="R96" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="S96" t="s">
-        <v>396</v>
+        <v>261</v>
       </c>
       <c r="T96" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21">
+        <v>408</v>
+      </c>
+      <c r="U96" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7573,10 +7897,10 @@
         <v>8514026</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D97" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E97">
         <v>1499.99</v>
@@ -7585,7 +7909,7 @@
         <v>329</v>
       </c>
       <c r="G97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -7594,43 +7918,46 @@
         <v>4220</v>
       </c>
       <c r="J97" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="K97" t="s">
         <v>165</v>
       </c>
       <c r="L97" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="M97" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
       <c r="N97" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O97" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="P97" t="s">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c r="Q97" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="R97" t="s">
-        <v>409</v>
+        <v>172</v>
       </c>
       <c r="S97" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="T97" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="U97" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21">
+        <v>429</v>
+      </c>
+      <c r="V97" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7638,10 +7965,10 @@
         <v>2698027</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E98">
         <v>799.99</v>
@@ -7650,7 +7977,7 @@
         <v>111</v>
       </c>
       <c r="G98" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -7659,40 +7986,43 @@
         <v>4258</v>
       </c>
       <c r="J98" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="K98" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L98" t="s">
-        <v>245</v>
+        <v>169</v>
       </c>
       <c r="M98" t="s">
-        <v>156</v>
+        <v>257</v>
       </c>
       <c r="N98" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="O98" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="P98" t="s">
-        <v>359</v>
+        <v>262</v>
       </c>
       <c r="Q98" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="R98" t="s">
-        <v>249</v>
+        <v>407</v>
       </c>
       <c r="S98" t="s">
-        <v>396</v>
+        <v>261</v>
       </c>
       <c r="T98" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21">
+        <v>408</v>
+      </c>
+      <c r="U98" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7700,10 +8030,10 @@
         <v>2698054</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E99">
         <v>2299.99</v>
@@ -7712,7 +8042,7 @@
         <v>45</v>
       </c>
       <c r="G99" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H99">
         <v>200</v>
@@ -7721,37 +8051,40 @@
         <v>4259</v>
       </c>
       <c r="J99" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="K99" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="L99" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="M99" t="s">
-        <v>156</v>
+        <v>258</v>
       </c>
       <c r="N99" t="s">
-        <v>273</v>
+        <v>168</v>
       </c>
       <c r="O99" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="P99" t="s">
-        <v>249</v>
+        <v>326</v>
       </c>
       <c r="Q99" t="s">
-        <v>396</v>
+        <v>261</v>
       </c>
       <c r="R99" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="S99" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21">
+        <v>422</v>
+      </c>
+      <c r="T99" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7759,10 +8092,10 @@
         <v>7846019</v>
       </c>
       <c r="C100" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D100" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E100">
         <v>1999.99</v>
@@ -7771,7 +8104,7 @@
         <v>218</v>
       </c>
       <c r="G100" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H100">
         <v>500</v>
@@ -7780,40 +8113,43 @@
         <v>4560</v>
       </c>
       <c r="J100" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K100" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L100" t="s">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="M100" t="s">
-        <v>160</v>
+        <v>259</v>
       </c>
       <c r="N100" t="s">
-        <v>274</v>
+        <v>172</v>
       </c>
       <c r="O100" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="P100" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="Q100" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="R100" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="S100" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="T100" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21">
+        <v>430</v>
+      </c>
+      <c r="U100" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7821,10 +8157,10 @@
         <v>5182036</v>
       </c>
       <c r="C101" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D101" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E101">
         <v>3499.99</v>
@@ -7833,7 +8169,7 @@
         <v>58</v>
       </c>
       <c r="G101" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H101">
         <v>500</v>
@@ -7842,34 +8178,37 @@
         <v>4794</v>
       </c>
       <c r="J101" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="K101" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="L101" t="s">
-        <v>248</v>
+        <v>169</v>
       </c>
       <c r="M101" t="s">
-        <v>155</v>
+        <v>260</v>
       </c>
       <c r="N101" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="O101" t="s">
-        <v>315</v>
+        <v>230</v>
       </c>
       <c r="P101" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="Q101" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="R101" t="s">
-        <v>257</v>
+        <v>352</v>
       </c>
       <c r="S101" t="s">
-        <v>410</v>
+        <v>269</v>
+      </c>
+      <c r="T101" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>
